--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Osmr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H2">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I2">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J2">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.640898</v>
+        <v>34.409525</v>
       </c>
       <c r="N2">
-        <v>151.922694</v>
+        <v>103.228575</v>
       </c>
       <c r="O2">
-        <v>0.2991745142287969</v>
+        <v>0.2720723062679606</v>
       </c>
       <c r="P2">
-        <v>0.3247737340214803</v>
+        <v>0.2821159592454627</v>
       </c>
       <c r="Q2">
-        <v>1065.942186356124</v>
+        <v>5.882342708275</v>
       </c>
       <c r="R2">
-        <v>9593.479677205116</v>
+        <v>52.941084374475</v>
       </c>
       <c r="S2">
-        <v>0.1151362263676111</v>
+        <v>0.0007503960982767016</v>
       </c>
       <c r="T2">
-        <v>0.1249879932284426</v>
+        <v>0.0007809199038706796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H3">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I3">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J3">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>235.510056</v>
       </c>
       <c r="O3">
-        <v>0.4637793389827378</v>
+        <v>0.6207173167431262</v>
       </c>
       <c r="P3">
-        <v>0.5034631645403019</v>
+        <v>0.6436313332853103</v>
       </c>
       <c r="Q3">
-        <v>1652.420039375376</v>
+        <v>13.420226527752</v>
       </c>
       <c r="R3">
-        <v>14871.78035437839</v>
+        <v>120.782038749768</v>
       </c>
       <c r="S3">
-        <v>0.1784837959723435</v>
+        <v>0.00171198553430896</v>
       </c>
       <c r="T3">
-        <v>0.1937559722615118</v>
+        <v>0.00178162384099653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H4">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I4">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J4">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05322866666666667</v>
+        <v>0.05146433333333333</v>
       </c>
       <c r="N4">
-        <v>0.159686</v>
+        <v>0.154393</v>
       </c>
       <c r="O4">
-        <v>0.0003144624428470157</v>
+        <v>0.0004069227884006851</v>
       </c>
       <c r="P4">
-        <v>0.0003413697922639135</v>
+        <v>0.0004219444983696106</v>
       </c>
       <c r="Q4">
-        <v>1.120412227356</v>
+        <v>0.008797879247666666</v>
       </c>
       <c r="R4">
-        <v>10.083710046204</v>
+        <v>0.07918091322900001</v>
       </c>
       <c r="S4">
-        <v>0.0001210197302302864</v>
+        <v>1.122323976682181E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001313749260309792</v>
+        <v>1.167976664584451E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H5">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I5">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J5">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.0261565</v>
+        <v>13.507645</v>
       </c>
       <c r="N5">
-        <v>80.052313</v>
+        <v>27.01529</v>
       </c>
       <c r="O5">
-        <v>0.2364651181211933</v>
+        <v>0.1068034542005124</v>
       </c>
       <c r="P5">
-        <v>0.1711323563684718</v>
+        <v>0.07383076297085721</v>
       </c>
       <c r="Q5">
-        <v>842.512089162447</v>
+        <v>2.309145420395</v>
       </c>
       <c r="R5">
-        <v>5055.072534974682</v>
+        <v>13.85487252237</v>
       </c>
       <c r="S5">
-        <v>0.09100274279120066</v>
+        <v>0.0002945720437845858</v>
       </c>
       <c r="T5">
-        <v>0.06585966646408446</v>
+        <v>0.0002043695524212994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.049038</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H6">
-        <v>63.147114</v>
+        <v>108.643604</v>
       </c>
       <c r="I6">
-        <v>0.3848463719057281</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J6">
-        <v>0.384846371905728</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04512133333333334</v>
+        <v>34.409525</v>
       </c>
       <c r="N6">
-        <v>0.135364</v>
+        <v>103.228575</v>
       </c>
       <c r="O6">
-        <v>0.0002665662244250807</v>
+        <v>0.2720723062679606</v>
       </c>
       <c r="P6">
-        <v>0.0002893752774821361</v>
+        <v>0.2821159592454627</v>
       </c>
       <c r="Q6">
-        <v>0.9497606599440002</v>
+        <v>1246.124935976033</v>
       </c>
       <c r="R6">
-        <v>8.547845939496002</v>
+        <v>11215.1244237843</v>
       </c>
       <c r="S6">
-        <v>0.0001025870443426004</v>
+        <v>0.1589651158213348</v>
       </c>
       <c r="T6">
-        <v>0.0001113650256582134</v>
+        <v>0.1654313278694756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H7">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I7">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J7">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.640898</v>
+        <v>78.50335200000001</v>
       </c>
       <c r="N7">
-        <v>151.922694</v>
+        <v>235.510056</v>
       </c>
       <c r="O7">
-        <v>0.2991745142287969</v>
+        <v>0.6207173167431262</v>
       </c>
       <c r="P7">
-        <v>0.3247737340214803</v>
+        <v>0.6436313332853103</v>
       </c>
       <c r="Q7">
-        <v>1703.844056080474</v>
+        <v>2842.962362453536</v>
       </c>
       <c r="R7">
-        <v>15334.59650472427</v>
+        <v>25586.66126208182</v>
       </c>
       <c r="S7">
-        <v>0.1840382878611858</v>
+        <v>0.3626697678344301</v>
       </c>
       <c r="T7">
-        <v>0.1997857407930377</v>
+        <v>0.3774220586760455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H8">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I8">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J8">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>78.50335200000001</v>
+        <v>0.05146433333333333</v>
       </c>
       <c r="N8">
-        <v>235.510056</v>
+        <v>0.154393</v>
       </c>
       <c r="O8">
-        <v>0.4637793389827378</v>
+        <v>0.0004069227884006851</v>
       </c>
       <c r="P8">
-        <v>0.5034631645403019</v>
+        <v>0.0004219444983696106</v>
       </c>
       <c r="Q8">
-        <v>2641.293400594776</v>
+        <v>1.863756883596889</v>
       </c>
       <c r="R8">
-        <v>23771.64060535298</v>
+        <v>16.773811952372</v>
       </c>
       <c r="S8">
-        <v>0.2852955430103944</v>
+        <v>0.0002377549155067126</v>
       </c>
       <c r="T8">
-        <v>0.3097071922787901</v>
+        <v>0.0002474260543047499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,170 +974,542 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H9">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I9">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J9">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05322866666666667</v>
+        <v>13.507645</v>
       </c>
       <c r="N9">
-        <v>0.159686</v>
+        <v>27.01529</v>
       </c>
       <c r="O9">
-        <v>0.0003144624428470157</v>
+        <v>0.1068034542005124</v>
       </c>
       <c r="P9">
-        <v>0.0003413697922639135</v>
+        <v>0.07383076297085721</v>
       </c>
       <c r="Q9">
-        <v>1.790911119172667</v>
+        <v>489.1730781175266</v>
       </c>
       <c r="R9">
-        <v>16.118200072554</v>
+        <v>2935.03846870516</v>
       </c>
       <c r="S9">
-        <v>0.0001934427126167294</v>
+        <v>0.06240261531940573</v>
       </c>
       <c r="T9">
-        <v>0.0002099948662329343</v>
+        <v>0.04329397453640104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>33.645613</v>
+        <v>0.6721045</v>
       </c>
       <c r="H10">
-        <v>100.936839</v>
+        <v>1.344209</v>
       </c>
       <c r="I10">
-        <v>0.615153628094272</v>
+        <v>0.01084354751463971</v>
       </c>
       <c r="J10">
-        <v>0.6151536280942719</v>
+        <v>0.007255255913837327</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.0261565</v>
+        <v>34.409525</v>
       </c>
       <c r="N10">
-        <v>80.052313</v>
+        <v>103.228575</v>
       </c>
       <c r="O10">
-        <v>0.2364651181211933</v>
+        <v>0.2720723062679606</v>
       </c>
       <c r="P10">
-        <v>0.1711323563684718</v>
+        <v>0.2821159592454627</v>
       </c>
       <c r="Q10">
-        <v>1346.704571476434</v>
+        <v>23.1267965953625</v>
       </c>
       <c r="R10">
-        <v>8080.227428858606</v>
+        <v>138.760779572175</v>
       </c>
       <c r="S10">
-        <v>0.1454623753299926</v>
+        <v>0.002950228980434237</v>
       </c>
       <c r="T10">
-        <v>0.1052726899043873</v>
+        <v>0.002046823481703534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.6721045</v>
+      </c>
+      <c r="H11">
+        <v>1.344209</v>
+      </c>
+      <c r="I11">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J11">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>78.50335200000001</v>
+      </c>
+      <c r="N11">
+        <v>235.510056</v>
+      </c>
+      <c r="O11">
+        <v>0.6207173167431262</v>
+      </c>
+      <c r="P11">
+        <v>0.6436313332853103</v>
+      </c>
+      <c r="Q11">
+        <v>52.762456144284</v>
+      </c>
+      <c r="R11">
+        <v>316.574736865704</v>
+      </c>
+      <c r="S11">
+        <v>0.006730777717263754</v>
+      </c>
+      <c r="T11">
+        <v>0.004669710037149251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.6721045</v>
+      </c>
+      <c r="H12">
+        <v>1.344209</v>
+      </c>
+      <c r="I12">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J12">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05146433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.154393</v>
+      </c>
+      <c r="O12">
+        <v>0.0004069227884006851</v>
+      </c>
+      <c r="P12">
+        <v>0.0004219444983696106</v>
+      </c>
+      <c r="Q12">
+        <v>0.03458941002283333</v>
+      </c>
+      <c r="R12">
+        <v>0.207536460137</v>
+      </c>
+      <c r="S12">
+        <v>4.412486590812507E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.061315317107241E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.6721045</v>
+      </c>
+      <c r="H13">
+        <v>1.344209</v>
+      </c>
+      <c r="I13">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J13">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.507645</v>
+      </c>
+      <c r="N13">
+        <v>27.01529</v>
+      </c>
+      <c r="O13">
+        <v>0.1068034542005124</v>
+      </c>
+      <c r="P13">
+        <v>0.07383076297085721</v>
+      </c>
+      <c r="Q13">
+        <v>9.078548988902501</v>
+      </c>
+      <c r="R13">
+        <v>36.31419595561</v>
+      </c>
+      <c r="S13">
+        <v>0.001158128330350902</v>
+      </c>
+      <c r="T13">
+        <v>0.0005356610796674337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H14">
+        <v>74.773157</v>
+      </c>
+      <c r="I14">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J14">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.409525</v>
+      </c>
+      <c r="N14">
+        <v>103.228575</v>
+      </c>
+      <c r="O14">
+        <v>0.2720723062679606</v>
+      </c>
+      <c r="P14">
+        <v>0.2821159592454627</v>
+      </c>
+      <c r="Q14">
+        <v>857.6362717068083</v>
+      </c>
+      <c r="R14">
+        <v>7718.726445361275</v>
+      </c>
+      <c r="S14">
+        <v>0.1094065653679148</v>
+      </c>
+      <c r="T14">
+        <v>0.1138568879904129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H15">
+        <v>74.773157</v>
+      </c>
+      <c r="I15">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J15">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>78.50335200000001</v>
+      </c>
+      <c r="N15">
+        <v>235.510056</v>
+      </c>
+      <c r="O15">
+        <v>0.6207173167431262</v>
+      </c>
+      <c r="P15">
+        <v>0.6436313332853103</v>
+      </c>
+      <c r="Q15">
+        <v>1956.647821374088</v>
+      </c>
+      <c r="R15">
+        <v>17609.83039236679</v>
+      </c>
+      <c r="S15">
+        <v>0.2496047856571234</v>
+      </c>
+      <c r="T15">
+        <v>0.259757940731119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>33.645613</v>
-      </c>
-      <c r="H11">
-        <v>100.936839</v>
-      </c>
-      <c r="I11">
-        <v>0.615153628094272</v>
-      </c>
-      <c r="J11">
-        <v>0.6151536280942719</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H16">
+        <v>74.773157</v>
+      </c>
+      <c r="I16">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J16">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M11">
-        <v>0.04512133333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.135364</v>
-      </c>
-      <c r="O11">
-        <v>0.0002665662244250807</v>
-      </c>
-      <c r="P11">
-        <v>0.0002893752774821361</v>
-      </c>
-      <c r="Q11">
-        <v>1.518134919377333</v>
-      </c>
-      <c r="R11">
-        <v>13.663214274396</v>
-      </c>
-      <c r="S11">
-        <v>0.0001639791800824803</v>
-      </c>
-      <c r="T11">
-        <v>0.0001780102518239227</v>
+      <c r="M16">
+        <v>0.05146433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.154393</v>
+      </c>
+      <c r="O16">
+        <v>0.0004069227884006851</v>
+      </c>
+      <c r="P16">
+        <v>0.0004219444983696106</v>
+      </c>
+      <c r="Q16">
+        <v>1.282716892077889</v>
+      </c>
+      <c r="R16">
+        <v>11.544452028701</v>
+      </c>
+      <c r="S16">
+        <v>0.0001636330623264777</v>
+      </c>
+      <c r="T16">
+        <v>0.000170289152083169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H17">
+        <v>74.773157</v>
+      </c>
+      <c r="I17">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J17">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.507645</v>
+      </c>
+      <c r="N17">
+        <v>27.01529</v>
+      </c>
+      <c r="O17">
+        <v>0.1068034542005124</v>
+      </c>
+      <c r="P17">
+        <v>0.07383076297085721</v>
+      </c>
+      <c r="Q17">
+        <v>336.6697534284216</v>
+      </c>
+      <c r="R17">
+        <v>2020.01852057053</v>
+      </c>
+      <c r="S17">
+        <v>0.0429481385069712</v>
+      </c>
+      <c r="T17">
+        <v>0.02979675780236743</v>
       </c>
     </row>
   </sheetData>
